--- a/data/formatted/movies_formatted.xlsx
+++ b/data/formatted/movies_formatted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
@@ -474,9 +479,14 @@
           <t>BoxOffice</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Search Trend</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -484,10 +494,8 @@
           <t>The Age of Adaline</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2015</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -497,10 +505,8 @@
       <c r="E2" t="n">
         <v>212877</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="F2" t="n">
+        <v>7.2</v>
       </c>
       <c r="G2" t="n">
         <v>112</v>
@@ -513,9 +519,12 @@
       <c r="I2" t="n">
         <v>42629776</v>
       </c>
+      <c r="J2" t="n">
+        <v>1068</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,10 +532,8 @@
           <t>Black Christmas</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1974</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,10 +543,8 @@
       <c r="E3" t="n">
         <v>50352</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
+      <c r="F3" t="n">
+        <v>7.1</v>
       </c>
       <c r="G3" t="n">
         <v>98</v>
@@ -552,9 +557,10 @@
       <c r="I3" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,10 +568,8 @@
           <t>London</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="C4" t="n">
+        <v>2005</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -575,10 +579,8 @@
       <c r="E4" t="n">
         <v>25119</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F4" t="n">
+        <v>6.3</v>
       </c>
       <c r="G4" t="n">
         <v>92</v>
@@ -591,9 +593,10 @@
       <c r="I4" t="n">
         <v>20361</v>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,10 +604,8 @@
           <t>Twisted</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="C5" t="n">
+        <v>2004</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -614,10 +615,8 @@
       <c r="E5" t="n">
         <v>23599</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
         <v>97</v>
@@ -630,9 +629,10 @@
       <c r="I5" t="n">
         <v>25198598</v>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -640,10 +640,8 @@
           <t>Friends with Kids</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C6" t="n">
+        <v>2011</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -653,10 +651,8 @@
       <c r="E6" t="n">
         <v>43369</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F6" t="n">
+        <v>6.1</v>
       </c>
       <c r="G6" t="n">
         <v>107</v>
@@ -669,9 +665,12 @@
       <c r="I6" t="n">
         <v>7251073</v>
       </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -679,10 +678,8 @@
           <t>Ken Park</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="C7" t="n">
+        <v>2002</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -692,10 +689,8 @@
       <c r="E7" t="n">
         <v>31148</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
+      <c r="F7" t="n">
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
         <v>93</v>
@@ -708,9 +703,10 @@
       <c r="I7" t="n">
         <v>455317.5</v>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -718,10 +714,8 @@
           <t>Girls Trip</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C8" t="n">
+        <v>2017</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -731,10 +725,8 @@
       <c r="E8" t="n">
         <v>41464</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F8" t="n">
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
         <v>122</v>
@@ -747,9 +739,12 @@
       <c r="I8" t="n">
         <v>115171585</v>
       </c>
+      <c r="J8" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -757,10 +752,8 @@
           <t>The Art of the Steal</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C9" t="n">
+        <v>2013</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -770,10 +763,8 @@
       <c r="E9" t="n">
         <v>26330</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F9" t="n">
+        <v>6.3</v>
       </c>
       <c r="G9" t="n">
         <v>90</v>
@@ -786,9 +777,12 @@
       <c r="I9" t="n">
         <v>64065</v>
       </c>
+      <c r="J9" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -796,10 +790,8 @@
           <t>Macbeth</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2015</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -809,10 +801,8 @@
       <c r="E10" t="n">
         <v>60210</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F10" t="n">
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
         <v>113</v>
@@ -825,9 +815,12 @@
       <c r="I10" t="n">
         <v>1110707</v>
       </c>
+      <c r="J10" t="n">
+        <v>2770</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -835,10 +828,8 @@
           <t>Fatherhood</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2021</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -848,10 +839,8 @@
       <c r="E11" t="n">
         <v>44036</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F11" t="n">
+        <v>6.6</v>
       </c>
       <c r="G11" t="n">
         <v>109</v>
@@ -864,9 +853,12 @@
       <c r="I11" t="n">
         <v>56629811.40740741</v>
       </c>
+      <c r="J11" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -874,10 +866,8 @@
           <t>London Has Fallen</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2016</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -887,10 +877,8 @@
       <c r="E12" t="n">
         <v>174344</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
+      <c r="F12" t="n">
+        <v>5.9</v>
       </c>
       <c r="G12" t="n">
         <v>99</v>
@@ -903,9 +891,12 @@
       <c r="I12" t="n">
         <v>62524260</v>
       </c>
+      <c r="J12" t="n">
+        <v>856</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -913,10 +904,8 @@
           <t>Anthropoid</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2016</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -926,10 +915,8 @@
       <c r="E13" t="n">
         <v>55712</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="F13" t="n">
+        <v>7.2</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -942,9 +929,12 @@
       <c r="I13" t="n">
         <v>2964845</v>
       </c>
+      <c r="J13" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -952,10 +942,8 @@
           <t>Me, Myself &amp; Irene</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -965,10 +953,8 @@
       <c r="E14" t="n">
         <v>255879</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F14" t="n">
+        <v>6.6</v>
       </c>
       <c r="G14" t="n">
         <v>116</v>
@@ -981,9 +967,10 @@
       <c r="I14" t="n">
         <v>90570999</v>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -991,10 +978,8 @@
           <t>The Fly</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1986</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1004,10 +989,8 @@
       <c r="E15" t="n">
         <v>211745</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
+      <c r="F15" t="n">
+        <v>7.6</v>
       </c>
       <c r="G15" t="n">
         <v>96</v>
@@ -1020,9 +1003,10 @@
       <c r="I15" t="n">
         <v>40456565</v>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1030,10 +1014,8 @@
           <t>A Quiet Place</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2018</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1043,10 +1025,8 @@
       <c r="E16" t="n">
         <v>620408</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="F16" t="n">
+        <v>7.5</v>
       </c>
       <c r="G16" t="n">
         <v>90</v>
@@ -1059,9 +1039,12 @@
       <c r="I16" t="n">
         <v>188024361</v>
       </c>
+      <c r="J16" t="n">
+        <v>638</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1069,10 +1052,8 @@
           <t>God's Not Dead 2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2016</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1082,10 +1063,8 @@
       <c r="E17" t="n">
         <v>13832</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="F17" t="n">
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
         <v>120</v>
@@ -1098,9 +1077,12 @@
       <c r="I17" t="n">
         <v>20774575</v>
       </c>
+      <c r="J17" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1108,10 +1090,8 @@
           <t>Hamlet 2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2008</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1121,10 +1101,8 @@
       <c r="E18" t="n">
         <v>17453</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F18" t="n">
+        <v>6.3</v>
       </c>
       <c r="G18" t="n">
         <v>92</v>
@@ -1137,9 +1115,10 @@
       <c r="I18" t="n">
         <v>4886216</v>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1147,10 +1126,8 @@
           <t>Where the Truth Lies</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2005</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1160,10 +1137,8 @@
       <c r="E19" t="n">
         <v>18962</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F19" t="n">
+        <v>6.4</v>
       </c>
       <c r="G19" t="n">
         <v>107</v>
@@ -1176,9 +1151,10 @@
       <c r="I19" t="n">
         <v>872142</v>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1186,10 +1162,8 @@
           <t>Ashby</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2015</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1199,10 +1173,8 @@
       <c r="E20" t="n">
         <v>16349</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F20" t="n">
+        <v>6.4</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -1215,9 +1187,12 @@
       <c r="I20" t="n">
         <v>4631</v>
       </c>
+      <c r="J20" t="n">
+        <v>866</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1225,10 +1200,8 @@
           <t>Jaws</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1975</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1238,10 +1211,8 @@
       <c r="E21" t="n">
         <v>686837</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="F21" t="n">
+        <v>8.1</v>
       </c>
       <c r="G21" t="n">
         <v>124</v>
@@ -1254,9 +1225,10 @@
       <c r="I21" t="n">
         <v>267263625</v>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1264,10 +1236,8 @@
           <t>Ricochet</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1991</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1277,10 +1247,8 @@
       <c r="E22" t="n">
         <v>21272</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F22" t="n">
+        <v>6.2</v>
       </c>
       <c r="G22" t="n">
         <v>102</v>
@@ -1293,9 +1261,10 @@
       <c r="I22" t="n">
         <v>21756163</v>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1303,10 +1272,8 @@
           <t>Middle Men</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C23" t="n">
+        <v>2009</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1316,10 +1283,8 @@
       <c r="E23" t="n">
         <v>38590</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F23" t="n">
+        <v>6.8</v>
       </c>
       <c r="G23" t="n">
         <v>105</v>
@@ -1332,9 +1297,12 @@
       <c r="I23" t="n">
         <v>754301</v>
       </c>
+      <c r="J23" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1342,10 +1310,8 @@
           <t>Secretary</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="C24" t="n">
+        <v>2002</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1355,10 +1321,8 @@
       <c r="E24" t="n">
         <v>102468</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F24" t="n">
+        <v>6.9</v>
       </c>
       <c r="G24" t="n">
         <v>107</v>
@@ -1371,9 +1335,10 @@
       <c r="I24" t="n">
         <v>4059680</v>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1381,10 +1346,8 @@
           <t>The Merchant of Venice</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="C25" t="n">
+        <v>2004</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1394,10 +1357,8 @@
       <c r="E25" t="n">
         <v>38689</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
+      <c r="F25" t="n">
+        <v>7</v>
       </c>
       <c r="G25" t="n">
         <v>131</v>
@@ -1410,9 +1371,10 @@
       <c r="I25" t="n">
         <v>3765585</v>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1420,10 +1382,8 @@
           <t>Ginger</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1971</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1433,10 +1393,8 @@
       <c r="E26" t="n">
         <v>636</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
+      <c r="F26" t="n">
+        <v>3.9</v>
       </c>
       <c r="G26" t="n">
         <v>90</v>
@@ -1449,9 +1407,10 @@
       <c r="I26" t="n">
         <v>872256</v>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1459,10 +1418,8 @@
           <t>Blood Diamond</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C27" t="n">
+        <v>2006</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1472,10 +1429,8 @@
       <c r="E27" t="n">
         <v>600904</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="F27" t="n">
+        <v>8</v>
       </c>
       <c r="G27" t="n">
         <v>143</v>
@@ -1488,9 +1443,10 @@
       <c r="I27" t="n">
         <v>57377916</v>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1498,10 +1454,8 @@
           <t>Hotel Transylvania 3: Summer Vacation</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C28" t="n">
+        <v>2018</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1511,10 +1465,8 @@
       <c r="E28" t="n">
         <v>90465</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F28" t="n">
+        <v>6.3</v>
       </c>
       <c r="G28" t="n">
         <v>97</v>
@@ -1527,9 +1479,12 @@
       <c r="I28" t="n">
         <v>167510016</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1537,10 +1492,8 @@
           <t>The Wizard of Oz</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1939</t>
-        </is>
+      <c r="C29" t="n">
+        <v>1939</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1550,10 +1503,8 @@
       <c r="E29" t="n">
         <v>445339</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="F29" t="n">
+        <v>8.1</v>
       </c>
       <c r="G29" t="n">
         <v>102</v>
@@ -1566,9 +1517,10 @@
       <c r="I29" t="n">
         <v>24668669</v>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1576,10 +1528,8 @@
           <t>Marvin's Room</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1996</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1589,10 +1539,8 @@
       <c r="E30" t="n">
         <v>30644</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F30" t="n">
+        <v>6.7</v>
       </c>
       <c r="G30" t="n">
         <v>98</v>
@@ -1605,9 +1553,10 @@
       <c r="I30" t="n">
         <v>12803305</v>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1615,10 +1564,8 @@
           <t>Horse Girl</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C31" t="n">
+        <v>2020</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1628,10 +1575,8 @@
       <c r="E31" t="n">
         <v>20973</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F31" t="n">
+        <v>6</v>
       </c>
       <c r="G31" t="n">
         <v>103</v>
@@ -1644,9 +1589,12 @@
       <c r="I31" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J31" t="n">
+        <v>1025</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1654,10 +1602,8 @@
           <t>The Taking of Deborah Logan</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C32" t="n">
+        <v>2014</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1667,10 +1613,8 @@
       <c r="E32" t="n">
         <v>42911</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F32" t="n">
+        <v>6</v>
       </c>
       <c r="G32" t="n">
         <v>90</v>
@@ -1683,9 +1627,12 @@
       <c r="I32" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J32" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1693,10 +1640,8 @@
           <t>Sheena</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="C33" t="n">
+        <v>1984</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1706,10 +1651,8 @@
       <c r="E33" t="n">
         <v>5705</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
+      <c r="F33" t="n">
+        <v>4.9</v>
       </c>
       <c r="G33" t="n">
         <v>117</v>
@@ -1722,9 +1665,10 @@
       <c r="I33" t="n">
         <v>5778353</v>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1732,10 +1676,8 @@
           <t>Song to Song</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C34" t="n">
+        <v>2017</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1745,10 +1687,8 @@
       <c r="E34" t="n">
         <v>23002</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
+      <c r="F34" t="n">
+        <v>5.6</v>
       </c>
       <c r="G34" t="n">
         <v>129</v>
@@ -1761,9 +1701,12 @@
       <c r="I34" t="n">
         <v>443684</v>
       </c>
+      <c r="J34" t="n">
+        <v>4785</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1771,10 +1714,8 @@
           <t>Pay the Ghost</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C35" t="n">
+        <v>2015</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1784,10 +1725,8 @@
       <c r="E35" t="n">
         <v>19360</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
+      <c r="F35" t="n">
+        <v>5.2</v>
       </c>
       <c r="G35" t="n">
         <v>94</v>
@@ -1800,9 +1739,12 @@
       <c r="I35" t="n">
         <v>455317.5</v>
       </c>
+      <c r="J35" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1810,10 +1752,8 @@
           <t>The Peacemaker</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="C36" t="n">
+        <v>1997</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1823,10 +1763,8 @@
       <c r="E36" t="n">
         <v>64073</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F36" t="n">
+        <v>6</v>
       </c>
       <c r="G36" t="n">
         <v>124</v>
@@ -1839,9 +1777,10 @@
       <c r="I36" t="n">
         <v>41263140</v>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1849,10 +1788,8 @@
           <t>Psycho III</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="C37" t="n">
+        <v>1986</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1862,10 +1799,8 @@
       <c r="E37" t="n">
         <v>17081</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
+      <c r="F37" t="n">
+        <v>5.5</v>
       </c>
       <c r="G37" t="n">
         <v>93</v>
@@ -1878,9 +1813,10 @@
       <c r="I37" t="n">
         <v>14481606</v>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1888,10 +1824,8 @@
           <t>The Art of Self-Defense</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C38" t="n">
+        <v>2019</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1901,10 +1835,8 @@
       <c r="E38" t="n">
         <v>41578</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F38" t="n">
+        <v>6.6</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1917,9 +1849,12 @@
       <c r="I38" t="n">
         <v>2410914</v>
       </c>
+      <c r="J38" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1927,10 +1862,8 @@
           <t>Ninja Assassin</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C39" t="n">
+        <v>2009</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1940,10 +1873,8 @@
       <c r="E39" t="n">
         <v>76573</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F39" t="n">
+        <v>6.3</v>
       </c>
       <c r="G39" t="n">
         <v>99</v>
@@ -1956,9 +1887,12 @@
       <c r="I39" t="n">
         <v>38122883</v>
       </c>
+      <c r="J39" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>43</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1966,10 +1900,8 @@
           <t>Justice League: Doom</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C40" t="n">
+        <v>2012</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1979,10 +1911,8 @@
       <c r="E40" t="n">
         <v>31806</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="F40" t="n">
+        <v>7.5</v>
       </c>
       <c r="G40" t="n">
         <v>75</v>
@@ -1995,9 +1925,12 @@
       <c r="I40" t="n">
         <v>56629811.40740741</v>
       </c>
+      <c r="J40" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2005,10 +1938,8 @@
           <t>Dead Again</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="C41" t="n">
+        <v>1991</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2018,10 +1949,8 @@
       <c r="E41" t="n">
         <v>30942</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F41" t="n">
+        <v>6.8</v>
       </c>
       <c r="G41" t="n">
         <v>107</v>
@@ -2034,9 +1963,10 @@
       <c r="I41" t="n">
         <v>38016380</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2044,10 +1974,8 @@
           <t>Mechanic: Resurrection</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C42" t="n">
+        <v>2016</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2057,10 +1985,8 @@
       <c r="E42" t="n">
         <v>96852</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+      <c r="F42" t="n">
+        <v>5.7</v>
       </c>
       <c r="G42" t="n">
         <v>98</v>
@@ -2073,9 +1999,12 @@
       <c r="I42" t="n">
         <v>21218403</v>
       </c>
+      <c r="J42" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2083,10 +2012,8 @@
           <t>Highlander: Endgame</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="C43" t="n">
+        <v>2000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2096,10 +2023,8 @@
       <c r="E43" t="n">
         <v>21621</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="F43" t="n">
+        <v>4.6</v>
       </c>
       <c r="G43" t="n">
         <v>87</v>
@@ -2112,9 +2037,10 @@
       <c r="I43" t="n">
         <v>12811858</v>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>47</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2122,10 +2048,8 @@
           <t>The Hunting Party</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="C44" t="n">
+        <v>2007</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2135,10 +2059,8 @@
       <c r="E44" t="n">
         <v>26288</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F44" t="n">
+        <v>6.8</v>
       </c>
       <c r="G44" t="n">
         <v>101</v>
@@ -2151,9 +2073,10 @@
       <c r="I44" t="n">
         <v>969869</v>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>48</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2161,10 +2084,8 @@
           <t>Certain Women</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C45" t="n">
+        <v>2016</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2174,10 +2095,8 @@
       <c r="E45" t="n">
         <v>16105</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F45" t="n">
+        <v>6.4</v>
       </c>
       <c r="G45" t="n">
         <v>107</v>
@@ -2190,9 +2109,12 @@
       <c r="I45" t="n">
         <v>1087585</v>
       </c>
+      <c r="J45" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>49</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2200,10 +2122,8 @@
           <t>The Post</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C46" t="n">
+        <v>2017</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2213,10 +2133,8 @@
       <c r="E46" t="n">
         <v>165772</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="F46" t="n">
+        <v>7.2</v>
       </c>
       <c r="G46" t="n">
         <v>116</v>
@@ -2229,9 +2147,12 @@
       <c r="I46" t="n">
         <v>81903458</v>
       </c>
+      <c r="J46" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>50</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2239,10 +2160,8 @@
           <t>My Favorite Martian</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="C47" t="n">
+        <v>1999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2252,10 +2171,8 @@
       <c r="E47" t="n">
         <v>14611</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
+      <c r="F47" t="n">
+        <v>5.1</v>
       </c>
       <c r="G47" t="n">
         <v>94</v>
@@ -2268,9 +2185,10 @@
       <c r="I47" t="n">
         <v>36850101</v>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>51</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2278,10 +2196,8 @@
           <t>FernGully: The Last Rainforest</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="C48" t="n">
+        <v>1992</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2291,10 +2207,8 @@
       <c r="E48" t="n">
         <v>35087</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+      <c r="F48" t="n">
+        <v>6.5</v>
       </c>
       <c r="G48" t="n">
         <v>76</v>
@@ -2307,9 +2221,10 @@
       <c r="I48" t="n">
         <v>24650296</v>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>52</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2317,10 +2232,8 @@
           <t>Lethal Weapon 4</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="C49" t="n">
+        <v>1998</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2330,10 +2243,8 @@
       <c r="E49" t="n">
         <v>175560</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F49" t="n">
+        <v>6.6</v>
       </c>
       <c r="G49" t="n">
         <v>127</v>
@@ -2346,9 +2257,10 @@
       <c r="I49" t="n">
         <v>130444603</v>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2356,10 +2268,8 @@
           <t>The Fourth Protocol</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="C50" t="n">
+        <v>1987</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2369,10 +2279,8 @@
       <c r="E50" t="n">
         <v>11400</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+      <c r="F50" t="n">
+        <v>6.5</v>
       </c>
       <c r="G50" t="n">
         <v>119</v>
@@ -2385,9 +2293,10 @@
       <c r="I50" t="n">
         <v>12423831</v>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>55</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2395,10 +2304,8 @@
           <t>Now You See Me 2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C51" t="n">
+        <v>2016</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2408,10 +2315,8 @@
       <c r="E51" t="n">
         <v>333462</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F51" t="n">
+        <v>6.4</v>
       </c>
       <c r="G51" t="n">
         <v>129</v>
@@ -2424,9 +2329,12 @@
       <c r="I51" t="n">
         <v>65075540</v>
       </c>
+      <c r="J51" t="n">
+        <v>1176</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>56</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2434,10 +2342,8 @@
           <t>Dead Space: Downfall</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="C52" t="n">
+        <v>2008</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2447,10 +2353,8 @@
       <c r="E52" t="n">
         <v>10259</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F52" t="n">
+        <v>6.3</v>
       </c>
       <c r="G52" t="n">
         <v>74</v>
@@ -2463,9 +2367,10 @@
       <c r="I52" t="n">
         <v>455317.5</v>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>57</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2473,10 +2378,8 @@
           <t>Bedtime Stories</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="C53" t="n">
+        <v>2008</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2486,10 +2389,8 @@
       <c r="E53" t="n">
         <v>102992</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F53" t="n">
+        <v>6</v>
       </c>
       <c r="G53" t="n">
         <v>99</v>
@@ -2502,9 +2403,10 @@
       <c r="I53" t="n">
         <v>110101975</v>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>58</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2512,10 +2414,8 @@
           <t>The Presidio</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="C54" t="n">
+        <v>1988</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2525,10 +2425,8 @@
       <c r="E54" t="n">
         <v>20405</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F54" t="n">
+        <v>6</v>
       </c>
       <c r="G54" t="n">
         <v>97</v>
@@ -2541,9 +2439,10 @@
       <c r="I54" t="n">
         <v>20324096</v>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>61</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2551,10 +2450,8 @@
           <t>Justice League: Gods and Monsters</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C55" t="n">
+        <v>2015</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2564,10 +2461,8 @@
       <c r="E55" t="n">
         <v>14262</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
+      <c r="F55" t="n">
+        <v>7</v>
       </c>
       <c r="G55" t="n">
         <v>76</v>
@@ -2580,9 +2475,12 @@
       <c r="I55" t="n">
         <v>56629811.40740741</v>
       </c>
+      <c r="J55" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>62</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2590,10 +2488,8 @@
           <t>Black Butterfly</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C56" t="n">
+        <v>2017</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2603,10 +2499,8 @@
       <c r="E56" t="n">
         <v>15275</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F56" t="n">
+        <v>6.1</v>
       </c>
       <c r="G56" t="n">
         <v>93</v>
@@ -2619,9 +2513,12 @@
       <c r="I56" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>63</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2629,10 +2526,8 @@
           <t>Saving Mr. Banks</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C57" t="n">
+        <v>2013</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2642,10 +2537,8 @@
       <c r="E57" t="n">
         <v>172080</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="F57" t="n">
+        <v>7.5</v>
       </c>
       <c r="G57" t="n">
         <v>125</v>
@@ -2658,9 +2551,12 @@
       <c r="I57" t="n">
         <v>83301580</v>
       </c>
+      <c r="J57" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>64</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2668,10 +2564,8 @@
           <t>Elegy</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="C58" t="n">
+        <v>2008</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2681,10 +2575,8 @@
       <c r="E58" t="n">
         <v>23406</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F58" t="n">
+        <v>6.7</v>
       </c>
       <c r="G58" t="n">
         <v>112</v>
@@ -2697,9 +2589,10 @@
       <c r="I58" t="n">
         <v>3581642</v>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>65</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2707,10 +2600,8 @@
           <t>Welcome to Marwen</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C59" t="n">
+        <v>2018</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2720,10 +2611,8 @@
       <c r="E59" t="n">
         <v>26683</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F59" t="n">
+        <v>6.2</v>
       </c>
       <c r="G59" t="n">
         <v>116</v>
@@ -2736,9 +2625,12 @@
       <c r="I59" t="n">
         <v>10763520</v>
       </c>
+      <c r="J59" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2746,10 +2638,8 @@
           <t>Berberian Sound Studio</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C60" t="n">
+        <v>2012</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2759,10 +2649,8 @@
       <c r="E60" t="n">
         <v>17777</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F60" t="n">
+        <v>6.2</v>
       </c>
       <c r="G60" t="n">
         <v>92</v>
@@ -2775,9 +2663,12 @@
       <c r="I60" t="n">
         <v>38493</v>
       </c>
+      <c r="J60" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>67</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2785,10 +2676,8 @@
           <t>Frankenweenie</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C61" t="n">
+        <v>2012</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2798,10 +2687,8 @@
       <c r="E61" t="n">
         <v>120955</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F61" t="n">
+        <v>6.9</v>
       </c>
       <c r="G61" t="n">
         <v>87</v>
@@ -2814,9 +2701,12 @@
       <c r="I61" t="n">
         <v>35291068</v>
       </c>
+      <c r="J61" t="n">
+        <v>1063</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>69</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2824,10 +2714,8 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C62" t="n">
+        <v>2011</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2837,10 +2725,8 @@
       <c r="E62" t="n">
         <v>271966</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F62" t="n">
+        <v>6.8</v>
       </c>
       <c r="G62" t="n">
         <v>113</v>
@@ -2853,9 +2739,12 @@
       <c r="I62" t="n">
         <v>63686397</v>
       </c>
+      <c r="J62" t="n">
+        <v>2812</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>70</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2863,10 +2752,8 @@
           <t>Power Rangers</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C63" t="n">
+        <v>2017</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2876,10 +2763,8 @@
       <c r="E63" t="n">
         <v>115698</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
+      <c r="F63" t="n">
+        <v>5.9</v>
       </c>
       <c r="G63" t="n">
         <v>124</v>
@@ -2892,9 +2777,12 @@
       <c r="I63" t="n">
         <v>85364450</v>
       </c>
+      <c r="J63" t="n">
+        <v>1195</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>71</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2902,10 +2790,8 @@
           <t>Summer of 84</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C64" t="n">
+        <v>2018</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2915,10 +2801,8 @@
       <c r="E64" t="n">
         <v>48488</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F64" t="n">
+        <v>6.7</v>
       </c>
       <c r="G64" t="n">
         <v>105</v>
@@ -2931,9 +2815,12 @@
       <c r="I64" t="n">
         <v>455317.5</v>
       </c>
+      <c r="J64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2941,10 +2828,8 @@
           <t>Moonrise Kingdom</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C65" t="n">
+        <v>2012</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2954,10 +2839,8 @@
       <c r="E65" t="n">
         <v>371931</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="F65" t="n">
+        <v>7.8</v>
       </c>
       <c r="G65" t="n">
         <v>94</v>
@@ -2970,9 +2853,12 @@
       <c r="I65" t="n">
         <v>45512466</v>
       </c>
+      <c r="J65" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>73</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2980,10 +2866,8 @@
           <t>The Departed</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C66" t="n">
+        <v>2006</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2993,10 +2877,8 @@
       <c r="E66" t="n">
         <v>1460913</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+      <c r="F66" t="n">
+        <v>8.5</v>
       </c>
       <c r="G66" t="n">
         <v>151</v>
@@ -3009,9 +2891,10 @@
       <c r="I66" t="n">
         <v>132399394</v>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>74</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3019,10 +2902,8 @@
           <t>Let Me In</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C67" t="n">
+        <v>2010</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3032,10 +2913,8 @@
       <c r="E67" t="n">
         <v>129885</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
+      <c r="F67" t="n">
+        <v>7.1</v>
       </c>
       <c r="G67" t="n">
         <v>116</v>
@@ -3048,9 +2927,12 @@
       <c r="I67" t="n">
         <v>12134935</v>
       </c>
+      <c r="J67" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -3058,10 +2940,8 @@
           <t>Brightburn</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C68" t="n">
+        <v>2019</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3071,10 +2951,8 @@
       <c r="E68" t="n">
         <v>111355</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F68" t="n">
+        <v>6.1</v>
       </c>
       <c r="G68" t="n">
         <v>90</v>
@@ -3087,9 +2965,12 @@
       <c r="I68" t="n">
         <v>17300439</v>
       </c>
+      <c r="J68" t="n">
+        <v>643</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -3097,10 +2978,8 @@
           <t>Alpha</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C69" t="n">
+        <v>2018</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3110,10 +2989,8 @@
       <c r="E69" t="n">
         <v>68140</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F69" t="n">
+        <v>6.6</v>
       </c>
       <c r="G69" t="n">
         <v>96</v>
@@ -3126,9 +3003,12 @@
       <c r="I69" t="n">
         <v>35857181</v>
       </c>
+      <c r="J69" t="n">
+        <v>4022</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -3136,10 +3016,8 @@
           <t>Love the Coopers</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C70" t="n">
+        <v>2015</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3149,10 +3027,8 @@
       <c r="E70" t="n">
         <v>28112</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
+      <c r="F70" t="n">
+        <v>5.8</v>
       </c>
       <c r="G70" t="n">
         <v>107</v>
@@ -3165,9 +3041,12 @@
       <c r="I70" t="n">
         <v>26302731</v>
       </c>
+      <c r="J70" t="n">
+        <v>508</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>78</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3175,10 +3054,8 @@
           <t>The Turning</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C71" t="n">
+        <v>2020</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3188,10 +3065,8 @@
       <c r="E71" t="n">
         <v>16723</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
+      <c r="F71" t="n">
+        <v>3.9</v>
       </c>
       <c r="G71" t="n">
         <v>94</v>
@@ -3204,9 +3079,12 @@
       <c r="I71" t="n">
         <v>15472775</v>
       </c>
+      <c r="J71" t="n">
+        <v>1502</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3214,10 +3092,8 @@
           <t>The Tree of Life</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C72" t="n">
+        <v>2011</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3227,10 +3103,8 @@
       <c r="E72" t="n">
         <v>186565</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F72" t="n">
+        <v>6.8</v>
       </c>
       <c r="G72" t="n">
         <v>139</v>
@@ -3243,9 +3117,12 @@
       <c r="I72" t="n">
         <v>13303319</v>
       </c>
+      <c r="J72" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>80</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -3253,10 +3130,8 @@
           <t>Gandhi</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="C73" t="n">
+        <v>1982</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3266,10 +3141,8 @@
       <c r="E73" t="n">
         <v>242723</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="F73" t="n">
+        <v>8</v>
       </c>
       <c r="G73" t="n">
         <v>191</v>
@@ -3282,9 +3155,10 @@
       <c r="I73" t="n">
         <v>52767889</v>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -3292,10 +3166,8 @@
           <t>World's Greatest Dad</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C74" t="n">
+        <v>2009</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3305,10 +3177,8 @@
       <c r="E74" t="n">
         <v>41344</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F74" t="n">
+        <v>6.9</v>
       </c>
       <c r="G74" t="n">
         <v>99</v>
@@ -3321,9 +3191,12 @@
       <c r="I74" t="n">
         <v>221805</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>82</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -3331,10 +3204,8 @@
           <t>Blow the Man Down</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C75" t="n">
+        <v>2019</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3344,10 +3215,8 @@
       <c r="E75" t="n">
         <v>12564</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F75" t="n">
+        <v>6.4</v>
       </c>
       <c r="G75" t="n">
         <v>91</v>
@@ -3360,9 +3229,12 @@
       <c r="I75" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>83</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -3370,10 +3242,8 @@
           <t>Lifeforce</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="C76" t="n">
+        <v>1985</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3383,10 +3253,8 @@
       <c r="E76" t="n">
         <v>31433</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F76" t="n">
+        <v>6.1</v>
       </c>
       <c r="G76" t="n">
         <v>101</v>
@@ -3399,9 +3267,10 @@
       <c r="I76" t="n">
         <v>11603545</v>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -3409,10 +3278,8 @@
           <t>Red Dawn</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C77" t="n">
+        <v>2012</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3422,10 +3289,8 @@
       <c r="E77" t="n">
         <v>81594</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
+      <c r="F77" t="n">
+        <v>5.3</v>
       </c>
       <c r="G77" t="n">
         <v>93</v>
@@ -3438,9 +3303,12 @@
       <c r="I77" t="n">
         <v>44806783</v>
       </c>
+      <c r="J77" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>86</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -3448,10 +3316,8 @@
           <t>The Last Song</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C78" t="n">
+        <v>2010</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3461,10 +3327,8 @@
       <c r="E78" t="n">
         <v>93589</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F78" t="n">
+        <v>6</v>
       </c>
       <c r="G78" t="n">
         <v>107</v>
@@ -3477,9 +3341,12 @@
       <c r="I78" t="n">
         <v>62950384</v>
       </c>
+      <c r="J78" t="n">
+        <v>1469</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>87</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -3487,10 +3354,8 @@
           <t>Someone Great</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C79" t="n">
+        <v>2019</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3500,10 +3365,8 @@
       <c r="E79" t="n">
         <v>26097</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F79" t="n">
+        <v>6.2</v>
       </c>
       <c r="G79" t="n">
         <v>92</v>
@@ -3516,9 +3379,12 @@
       <c r="I79" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J79" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -3526,10 +3392,8 @@
           <t>One Chance</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C80" t="n">
+        <v>2013</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3539,10 +3403,8 @@
       <c r="E80" t="n">
         <v>13318</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="F80" t="n">
+        <v>6.8</v>
       </c>
       <c r="G80" t="n">
         <v>103</v>
@@ -3555,9 +3417,12 @@
       <c r="I80" t="n">
         <v>101196</v>
       </c>
+      <c r="J80" t="n">
+        <v>2356</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>89</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -3565,10 +3430,8 @@
           <t>The Weather Man</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="C81" t="n">
+        <v>2005</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3578,10 +3441,8 @@
       <c r="E81" t="n">
         <v>84353</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="F81" t="n">
+        <v>6.6</v>
       </c>
       <c r="G81" t="n">
         <v>102</v>
@@ -3594,9 +3455,10 @@
       <c r="I81" t="n">
         <v>12482775</v>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>90</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -3604,10 +3466,8 @@
           <t>Austin Powers in Goldmember</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="C82" t="n">
+        <v>2002</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3617,10 +3477,8 @@
       <c r="E82" t="n">
         <v>227105</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F82" t="n">
+        <v>6.2</v>
       </c>
       <c r="G82" t="n">
         <v>94</v>
@@ -3633,9 +3491,10 @@
       <c r="I82" t="n">
         <v>213307889</v>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>91</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -3643,10 +3502,8 @@
           <t>Down Periscope</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="C83" t="n">
+        <v>1996</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3656,10 +3513,8 @@
       <c r="E83" t="n">
         <v>27925</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F83" t="n">
+        <v>6.2</v>
       </c>
       <c r="G83" t="n">
         <v>92</v>
@@ -3672,9 +3527,10 @@
       <c r="I83" t="n">
         <v>25785603</v>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>92</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -3682,10 +3538,8 @@
           <t>Open Water</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="C84" t="n">
+        <v>2003</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3695,10 +3549,8 @@
       <c r="E84" t="n">
         <v>57551</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
+      <c r="F84" t="n">
+        <v>5.8</v>
       </c>
       <c r="G84" t="n">
         <v>79</v>
@@ -3711,9 +3563,10 @@
       <c r="I84" t="n">
         <v>30610863</v>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>93</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -3721,10 +3574,8 @@
           <t>Borat</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C85" t="n">
+        <v>2006</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3734,10 +3585,8 @@
       <c r="E85" t="n">
         <v>455110</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
+      <c r="F85" t="n">
+        <v>7.4</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
@@ -3750,9 +3599,10 @@
       <c r="I85" t="n">
         <v>128505958</v>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>94</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -3760,10 +3610,8 @@
           <t>Bliss</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C86" t="n">
+        <v>2021</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3773,10 +3621,8 @@
       <c r="E86" t="n">
         <v>20834</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
+      <c r="F86" t="n">
+        <v>5.4</v>
       </c>
       <c r="G86" t="n">
         <v>103</v>
@@ -3789,9 +3635,12 @@
       <c r="I86" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J86" t="n">
+        <v>2635</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>95</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -3799,10 +3648,8 @@
           <t>Valmont</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="C87" t="n">
+        <v>1989</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3812,10 +3659,8 @@
       <c r="E87" t="n">
         <v>14526</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
+      <c r="F87" t="n">
+        <v>7</v>
       </c>
       <c r="G87" t="n">
         <v>137</v>
@@ -3828,9 +3673,10 @@
       <c r="I87" t="n">
         <v>1132112</v>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>96</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -3838,10 +3684,8 @@
           <t>Stronger</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C88" t="n">
+        <v>2017</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3851,10 +3695,8 @@
       <c r="E88" t="n">
         <v>50936</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F88" t="n">
+        <v>6.9</v>
       </c>
       <c r="G88" t="n">
         <v>119</v>
@@ -3867,9 +3709,12 @@
       <c r="I88" t="n">
         <v>4211129</v>
       </c>
+      <c r="J88" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>99</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -3877,10 +3722,8 @@
           <t>Freaks of Nature</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C89" t="n">
+        <v>2015</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3890,10 +3733,8 @@
       <c r="E89" t="n">
         <v>13813</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
+      <c r="F89" t="n">
+        <v>5.9</v>
       </c>
       <c r="G89" t="n">
         <v>92</v>
@@ -3906,9 +3747,12 @@
       <c r="I89" t="n">
         <v>70958</v>
       </c>
+      <c r="J89" t="n">
+        <v>1023</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>100</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -3916,10 +3760,8 @@
           <t>Night of the Creeps</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="C90" t="n">
+        <v>1986</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3929,10 +3771,8 @@
       <c r="E90" t="n">
         <v>27240</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F90" t="n">
+        <v>6.7</v>
       </c>
       <c r="G90" t="n">
         <v>88</v>
@@ -3945,9 +3785,10 @@
       <c r="I90" t="n">
         <v>591366</v>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>101</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -3955,10 +3796,8 @@
           <t>Jaws: The Revenge</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="C91" t="n">
+        <v>1987</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3968,10 +3807,8 @@
       <c r="E91" t="n">
         <v>50954</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="F91" t="n">
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>89</v>
@@ -3984,9 +3821,10 @@
       <c r="I91" t="n">
         <v>20763013</v>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>102</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -3994,10 +3832,8 @@
           <t>The Irishman</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C92" t="n">
+        <v>2019</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4007,10 +3843,8 @@
       <c r="E92" t="n">
         <v>446147</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="F92" t="n">
+        <v>7.8</v>
       </c>
       <c r="G92" t="n">
         <v>209</v>
@@ -4023,9 +3857,12 @@
       <c r="I92" t="n">
         <v>24065925.59677419</v>
       </c>
+      <c r="J92" t="n">
+        <v>469</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>103</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -4033,10 +3870,8 @@
           <t>Dog Day Afternoon</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="C93" t="n">
+        <v>1975</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4046,10 +3881,8 @@
       <c r="E93" t="n">
         <v>279441</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="F93" t="n">
+        <v>8</v>
       </c>
       <c r="G93" t="n">
         <v>125</v>
@@ -4062,9 +3895,10 @@
       <c r="I93" t="n">
         <v>50000000</v>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>104</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -4072,10 +3906,8 @@
           <t>Shame</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C94" t="n">
+        <v>2011</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4085,10 +3917,8 @@
       <c r="E94" t="n">
         <v>210180</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="F94" t="n">
+        <v>7.2</v>
       </c>
       <c r="G94" t="n">
         <v>101</v>
@@ -4101,9 +3931,12 @@
       <c r="I94" t="n">
         <v>3909002</v>
       </c>
+      <c r="J94" t="n">
+        <v>2283</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>106</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -4111,10 +3944,8 @@
           <t>Shark Tale</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="C95" t="n">
+        <v>2004</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4124,10 +3955,8 @@
       <c r="E95" t="n">
         <v>203965</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F95" t="n">
+        <v>6</v>
       </c>
       <c r="G95" t="n">
         <v>90</v>
@@ -4140,9 +3969,10 @@
       <c r="I95" t="n">
         <v>160861908</v>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>107</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -4150,10 +3980,8 @@
           <t>Ordinary People</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="C96" t="n">
+        <v>1980</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4163,10 +3991,8 @@
       <c r="E96" t="n">
         <v>58437</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+      <c r="F96" t="n">
+        <v>7.7</v>
       </c>
       <c r="G96" t="n">
         <v>124</v>
@@ -4179,9 +4005,10 @@
       <c r="I96" t="n">
         <v>54766923</v>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>108</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -4189,10 +4016,8 @@
           <t>The Incredibles</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="C97" t="n">
+        <v>2004</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4202,10 +4027,8 @@
       <c r="E97" t="n">
         <v>842664</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="F97" t="n">
+        <v>8</v>
       </c>
       <c r="G97" t="n">
         <v>115</v>
@@ -4218,9 +4041,10 @@
       <c r="I97" t="n">
         <v>261441092</v>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>109</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -4228,10 +4052,8 @@
           <t>Dumplin'</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C98" t="n">
+        <v>2018</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4241,10 +4063,8 @@
       <c r="E98" t="n">
         <v>38267</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+      <c r="F98" t="n">
+        <v>6.5</v>
       </c>
       <c r="G98" t="n">
         <v>110</v>
@@ -4257,9 +4077,12 @@
       <c r="I98" t="n">
         <v>56629811.40740741</v>
       </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>110</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -4267,10 +4090,8 @@
           <t>Ghostbusters</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="C99" t="n">
+        <v>1984</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4280,10 +4101,8 @@
       <c r="E99" t="n">
         <v>465733</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="F99" t="n">
+        <v>7.8</v>
       </c>
       <c r="G99" t="n">
         <v>105</v>
@@ -4296,9 +4115,10 @@
       <c r="I99" t="n">
         <v>243640120</v>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>111</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -4306,10 +4126,8 @@
           <t>The Enforcer</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
+      <c r="C100" t="n">
+        <v>1976</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4319,10 +4137,8 @@
       <c r="E100" t="n">
         <v>50617</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F100" t="n">
+        <v>6.7</v>
       </c>
       <c r="G100" t="n">
         <v>96</v>
@@ -4335,9 +4151,10 @@
       <c r="I100" t="n">
         <v>46236000</v>
       </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>113</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -4345,10 +4162,8 @@
           <t>Bride Wars</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C101" t="n">
+        <v>2009</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4358,10 +4173,8 @@
       <c r="E101" t="n">
         <v>117655</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
+      <c r="F101" t="n">
+        <v>5.5</v>
       </c>
       <c r="G101" t="n">
         <v>89</v>
@@ -4374,9 +4187,12 @@
       <c r="I101" t="n">
         <v>58715510</v>
       </c>
+      <c r="J101" t="n">
+        <v>1011</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>114</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -4384,10 +4200,8 @@
           <t>How Do You Know</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C102" t="n">
+        <v>2010</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4397,10 +4211,8 @@
       <c r="E102" t="n">
         <v>55643</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
+      <c r="F102" t="n">
+        <v>5.4</v>
       </c>
       <c r="G102" t="n">
         <v>121</v>
@@ -4413,9 +4225,12 @@
       <c r="I102" t="n">
         <v>30212620</v>
       </c>
+      <c r="J102" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>115</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -4423,10 +4238,8 @@
           <t>Bottle Rocket</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="C103" t="n">
+        <v>1996</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4436,10 +4249,8 @@
       <c r="E103" t="n">
         <v>85231</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F103" t="n">
+        <v>6.9</v>
       </c>
       <c r="G103" t="n">
         <v>91</v>
@@ -4452,9 +4263,10 @@
       <c r="I103" t="n">
         <v>560069</v>
       </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>116</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -4462,10 +4274,8 @@
           <t>Over the Hedge</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C104" t="n">
+        <v>2006</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4475,10 +4285,8 @@
       <c r="E104" t="n">
         <v>194356</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
+      <c r="F104" t="n">
+        <v>6.7</v>
       </c>
       <c r="G104" t="n">
         <v>83</v>
@@ -4491,9 +4299,10 @@
       <c r="I104" t="n">
         <v>155019340</v>
       </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>117</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -4501,10 +4310,8 @@
           <t>Land of the Lost</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C105" t="n">
+        <v>2009</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4514,10 +4321,8 @@
       <c r="E105" t="n">
         <v>76725</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
+      <c r="F105" t="n">
+        <v>5.3</v>
       </c>
       <c r="G105" t="n">
         <v>102</v>
@@ -4530,9 +4335,12 @@
       <c r="I105" t="n">
         <v>49438370</v>
       </c>
+      <c r="J105" t="n">
+        <v>983</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>118</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -4540,10 +4348,8 @@
           <t>The Shaggy Dog</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C106" t="n">
+        <v>2006</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4553,10 +4359,8 @@
       <c r="E106" t="n">
         <v>20499</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+      <c r="F106" t="n">
+        <v>4.4</v>
       </c>
       <c r="G106" t="n">
         <v>98</v>
@@ -4569,9 +4373,10 @@
       <c r="I106" t="n">
         <v>61123569</v>
       </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>119</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -4579,10 +4384,8 @@
           <t>He's Just Not That Into You</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C107" t="n">
+        <v>2009</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4592,10 +4395,8 @@
       <c r="E107" t="n">
         <v>186823</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F107" t="n">
+        <v>6.4</v>
       </c>
       <c r="G107" t="n">
         <v>129</v>
@@ -4608,9 +4409,12 @@
       <c r="I107" t="n">
         <v>93953653</v>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>120</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -4618,10 +4422,8 @@
           <t>Rush Hour 3</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="C108" t="n">
+        <v>2007</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4631,10 +4433,8 @@
       <c r="E108" t="n">
         <v>187496</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
+      <c r="F108" t="n">
+        <v>6.2</v>
       </c>
       <c r="G108" t="n">
         <v>91</v>
@@ -4647,9 +4447,10 @@
       <c r="I108" t="n">
         <v>140125968</v>
       </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>121</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -4657,10 +4458,8 @@
           <t>Before I Go to Sleep</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C109" t="n">
+        <v>2014</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4670,10 +4469,8 @@
       <c r="E109" t="n">
         <v>85974</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+      <c r="F109" t="n">
+        <v>6.3</v>
       </c>
       <c r="G109" t="n">
         <v>92</v>
@@ -4686,9 +4483,12 @@
       <c r="I109" t="n">
         <v>3242457</v>
       </c>
+      <c r="J109" t="n">
+        <v>1094</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>122</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -4696,10 +4496,8 @@
           <t>Toy Story 2</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="C110" t="n">
+        <v>1999</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4709,10 +4507,8 @@
       <c r="E110" t="n">
         <v>638477</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
+      <c r="F110" t="n">
+        <v>7.9</v>
       </c>
       <c r="G110" t="n">
         <v>92</v>
@@ -4725,9 +4521,10 @@
       <c r="I110" t="n">
         <v>245852179</v>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>123</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -4735,10 +4532,8 @@
           <t>Blue Thunder</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
+      <c r="C111" t="n">
+        <v>1983</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -4748,10 +4543,8 @@
       <c r="E111" t="n">
         <v>24011</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F111" t="n">
+        <v>6.4</v>
       </c>
       <c r="G111" t="n">
         <v>109</v>
@@ -4764,9 +4557,10 @@
       <c r="I111" t="n">
         <v>42313354</v>
       </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>124</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -4774,10 +4568,8 @@
           <t>The Sweet Hereafter</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="C112" t="n">
+        <v>1997</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4787,10 +4579,8 @@
       <c r="E112" t="n">
         <v>37131</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
+      <c r="F112" t="n">
+        <v>7.4</v>
       </c>
       <c r="G112" t="n">
         <v>112</v>
@@ -4803,9 +4593,10 @@
       <c r="I112" t="n">
         <v>3263585</v>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>125</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -4813,10 +4604,8 @@
           <t>Chernobyl Diaries</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C113" t="n">
+        <v>2012</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4826,10 +4615,8 @@
       <c r="E113" t="n">
         <v>69450</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="F113" t="n">
+        <v>5</v>
       </c>
       <c r="G113" t="n">
         <v>86</v>
@@ -4842,9 +4629,12 @@
       <c r="I113" t="n">
         <v>18119640</v>
       </c>
+      <c r="J113" t="n">
+        <v>478</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>126</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -4852,10 +4642,8 @@
           <t>Never Been Kissed</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="C114" t="n">
+        <v>1999</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -4865,10 +4653,8 @@
       <c r="E114" t="n">
         <v>99122</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="F114" t="n">
+        <v>6</v>
       </c>
       <c r="G114" t="n">
         <v>107</v>
@@ -4881,9 +4667,10 @@
       <c r="I114" t="n">
         <v>55474756</v>
       </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>128</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -4891,10 +4678,8 @@
           <t>If Beale Street Could Talk</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C115" t="n">
+        <v>2018</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4904,10 +4689,8 @@
       <c r="E115" t="n">
         <v>53420</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
+      <c r="F115" t="n">
+        <v>7.1</v>
       </c>
       <c r="G115" t="n">
         <v>119</v>
@@ -4920,9 +4703,12 @@
       <c r="I115" t="n">
         <v>14915773</v>
       </c>
+      <c r="J115" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>129</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -4930,10 +4716,8 @@
           <t>Bambi</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
+      <c r="C116" t="n">
+        <v>1942</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4943,10 +4727,8 @@
       <c r="E116" t="n">
         <v>158410</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
+      <c r="F116" t="n">
+        <v>7.3</v>
       </c>
       <c r="G116" t="n">
         <v>69</v>
@@ -4959,9 +4741,10 @@
       <c r="I116" t="n">
         <v>102247150</v>
       </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>130</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -4969,10 +4752,8 @@
           <t>Ferris Bueller's Day Off</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="C117" t="n">
+        <v>1986</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4982,10 +4763,8 @@
       <c r="E117" t="n">
         <v>395990</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="F117" t="n">
+        <v>7.8</v>
       </c>
       <c r="G117" t="n">
         <v>103</v>
@@ -4998,9 +4777,10 @@
       <c r="I117" t="n">
         <v>70136369</v>
       </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>131</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -5008,10 +4788,8 @@
           <t>Spies Like Us</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="C118" t="n">
+        <v>1985</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -5021,10 +4799,8 @@
       <c r="E118" t="n">
         <v>53660</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F118" t="n">
+        <v>6.4</v>
       </c>
       <c r="G118" t="n">
         <v>102</v>
@@ -5037,9 +4813,10 @@
       <c r="I118" t="n">
         <v>60106536</v>
       </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>132</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -5047,10 +4824,8 @@
           <t>Critters</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="C119" t="n">
+        <v>1986</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -5060,10 +4835,8 @@
       <c r="E119" t="n">
         <v>40474</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F119" t="n">
+        <v>6.1</v>
       </c>
       <c r="G119" t="n">
         <v>86</v>
@@ -5076,9 +4849,10 @@
       <c r="I119" t="n">
         <v>13167232</v>
       </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>133</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -5086,10 +4860,8 @@
           <t>Reservoir Dogs</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="C120" t="n">
+        <v>1992</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -5099,10 +4871,8 @@
       <c r="E120" t="n">
         <v>1119363</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="F120" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="G120" t="n">
         <v>99</v>
@@ -5115,9 +4885,10 @@
       <c r="I120" t="n">
         <v>2832029</v>
       </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>134</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -5125,10 +4896,8 @@
           <t>Good Kill</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C121" t="n">
+        <v>2014</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -5138,10 +4907,8 @@
       <c r="E121" t="n">
         <v>25169</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="F121" t="n">
+        <v>6.4</v>
       </c>
       <c r="G121" t="n">
         <v>102</v>
@@ -5154,9 +4921,12 @@
       <c r="I121" t="n">
         <v>316472</v>
       </c>
+      <c r="J121" t="n">
+        <v>731</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>135</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -5164,10 +4934,8 @@
           <t>Semi-Pro</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="C122" t="n">
+        <v>2008</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5177,10 +4945,8 @@
       <c r="E122" t="n">
         <v>87055</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
+      <c r="F122" t="n">
+        <v>5.8</v>
       </c>
       <c r="G122" t="n">
         <v>91</v>
@@ -5193,9 +4959,10 @@
       <c r="I122" t="n">
         <v>33479698</v>
       </c>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>136</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -5203,10 +4970,8 @@
           <t>Searching for Bobby Fischer</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="C123" t="n">
+        <v>1993</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5216,10 +4981,8 @@
       <c r="E123" t="n">
         <v>43005</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
+      <c r="F123" t="n">
+        <v>7.4</v>
       </c>
       <c r="G123" t="n">
         <v>109</v>
@@ -5232,9 +4995,10 @@
       <c r="I123" t="n">
         <v>7266383</v>
       </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>137</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -5242,10 +5006,8 @@
           <t>Night of the Living Dead</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
+      <c r="C124" t="n">
+        <v>1968</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5255,10 +5017,8 @@
       <c r="E124" t="n">
         <v>144168</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="F124" t="n">
+        <v>7.8</v>
       </c>
       <c r="G124" t="n">
         <v>96</v>
@@ -5271,9 +5031,10 @@
       <c r="I124" t="n">
         <v>236452</v>
       </c>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>138</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -5281,10 +5042,8 @@
           <t>Heat</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="C125" t="n">
+        <v>1995</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -5294,10 +5053,8 @@
       <c r="E125" t="n">
         <v>745497</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="F125" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="G125" t="n">
         <v>170</v>
@@ -5310,9 +5067,10 @@
       <c r="I125" t="n">
         <v>67436818</v>
       </c>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>139</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -5320,10 +5078,8 @@
           <t>The Host</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C126" t="n">
+        <v>2006</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5333,10 +5089,8 @@
       <c r="E126" t="n">
         <v>136559</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
+      <c r="F126" t="n">
+        <v>7.1</v>
       </c>
       <c r="G126" t="n">
         <v>120</v>
@@ -5349,9 +5103,10 @@
       <c r="I126" t="n">
         <v>2201923</v>
       </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>140</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -5359,10 +5114,8 @@
           <t>I Kill Giants</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C127" t="n">
+        <v>2017</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -5372,10 +5125,8 @@
       <c r="E127" t="n">
         <v>33371</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F127" t="n">
+        <v>6.1</v>
       </c>
       <c r="G127" t="n">
         <v>106</v>
@@ -5388,9 +5139,12 @@
       <c r="I127" t="n">
         <v>455317.5</v>
       </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>141</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -5398,10 +5152,8 @@
           <t>Harley Davidson and the Marlboro Man</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="C128" t="n">
+        <v>1991</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5411,10 +5163,8 @@
       <c r="E128" t="n">
         <v>23394</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="F128" t="n">
+        <v>6.1</v>
       </c>
       <c r="G128" t="n">
         <v>98</v>
@@ -5427,9 +5177,10 @@
       <c r="I128" t="n">
         <v>7434726</v>
       </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>142</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -5437,10 +5188,8 @@
           <t>Junebug</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="C129" t="n">
+        <v>2005</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -5450,10 +5199,8 @@
       <c r="E129" t="n">
         <v>23593</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
+      <c r="F129" t="n">
+        <v>6.9</v>
       </c>
       <c r="G129" t="n">
         <v>106</v>
@@ -5466,9 +5213,10 @@
       <c r="I129" t="n">
         <v>2678691</v>
       </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>143</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -5476,10 +5224,8 @@
           <t>The Phantom</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="C130" t="n">
+        <v>1996</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -5489,10 +5235,8 @@
       <c r="E130" t="n">
         <v>36475</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
+      <c r="F130" t="n">
+        <v>5.1</v>
       </c>
       <c r="G130" t="n">
         <v>100</v>
@@ -5505,9 +5249,10 @@
       <c r="I130" t="n">
         <v>17323326</v>
       </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>144</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -5515,10 +5260,8 @@
           <t>A Hidden Life</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C131" t="n">
+        <v>2019</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -5528,10 +5271,8 @@
       <c r="E131" t="n">
         <v>29539</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
+      <c r="F131" t="n">
+        <v>7.4</v>
       </c>
       <c r="G131" t="n">
         <v>174</v>
@@ -5544,9 +5285,12 @@
       <c r="I131" t="n">
         <v>1730597</v>
       </c>
+      <c r="J131" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>145</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -5554,10 +5298,8 @@
           <t>National Treasure: Book of Secrets</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="C132" t="n">
+        <v>2007</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -5567,10 +5309,8 @@
       <c r="E132" t="n">
         <v>259750</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+      <c r="F132" t="n">
+        <v>6.5</v>
       </c>
       <c r="G132" t="n">
         <v>124</v>
@@ -5583,9 +5323,10 @@
       <c r="I132" t="n">
         <v>219964115</v>
       </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>147</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -5593,10 +5334,8 @@
           <t>Awake</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="C133" t="n">
+        <v>2007</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -5606,10 +5345,8 @@
       <c r="E133" t="n">
         <v>82099</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+      <c r="F133" t="n">
+        <v>6.5</v>
       </c>
       <c r="G133" t="n">
         <v>84</v>
@@ -5622,9 +5359,10 @@
       <c r="I133" t="n">
         <v>14377198</v>
       </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>149</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -5632,23 +5370,15 @@
           <t>What the Health</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C134" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>30760</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="F134" t="n">
+        <v>7.2</v>
       </c>
       <c r="G134" t="n">
         <v>97</v>
@@ -5659,6 +5389,9 @@
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
